--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr1b</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.47546229409258</v>
+        <v>2.709841333333333</v>
       </c>
       <c r="H2">
-        <v>2.47546229409258</v>
+        <v>8.129524</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8843878562630022</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8843878562630021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N2">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q2">
-        <v>8.912869201879854</v>
+        <v>9.790364074469334</v>
       </c>
       <c r="R2">
-        <v>8.912869201879854</v>
+        <v>88.113276670224</v>
       </c>
       <c r="S2">
-        <v>0.1645692222354987</v>
+        <v>0.1439849519935559</v>
       </c>
       <c r="T2">
-        <v>0.1645692222354987</v>
+        <v>0.1439849519935559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.47546229409258</v>
+        <v>2.709841333333333</v>
       </c>
       <c r="H3">
-        <v>2.47546229409258</v>
+        <v>8.129524</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8843878562630022</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8843878562630021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q3">
-        <v>19.53577126961985</v>
+        <v>21.49125481042223</v>
       </c>
       <c r="R3">
-        <v>19.53577126961985</v>
+        <v>193.4212932938</v>
       </c>
       <c r="S3">
-        <v>0.3607128760437607</v>
+        <v>0.3160676424924114</v>
       </c>
       <c r="T3">
-        <v>0.3607128760437607</v>
+        <v>0.3160676424924114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.47546229409258</v>
+        <v>2.709841333333333</v>
       </c>
       <c r="H4">
-        <v>2.47546229409258</v>
+        <v>8.129524</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8843878562630022</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8843878562630021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N4">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q4">
-        <v>10.7031800546428</v>
+        <v>11.81182080077422</v>
       </c>
       <c r="R4">
-        <v>10.7031800546428</v>
+        <v>106.306387206968</v>
       </c>
       <c r="S4">
-        <v>0.1976259246200494</v>
+        <v>0.1737141170664939</v>
       </c>
       <c r="T4">
-        <v>0.1976259246200494</v>
+        <v>0.1737141170664939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.47546229409258</v>
+        <v>2.709841333333333</v>
       </c>
       <c r="H5">
-        <v>2.47546229409258</v>
+        <v>8.129524</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8843878562630022</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8843878562630021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N5">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q5">
-        <v>12.5871142061615</v>
+        <v>14.23482723553511</v>
       </c>
       <c r="R5">
-        <v>12.5871142061615</v>
+        <v>128.113445119816</v>
       </c>
       <c r="S5">
-        <v>0.2324113086569806</v>
+        <v>0.2093487944426806</v>
       </c>
       <c r="T5">
-        <v>0.2324113086569806</v>
+        <v>0.2093487944426806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.709841333333333</v>
+      </c>
+      <c r="H6">
+        <v>8.129524</v>
+      </c>
+      <c r="I6">
+        <v>0.8843878562630022</v>
+      </c>
+      <c r="J6">
+        <v>0.8843878562630021</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.035612</v>
+      </c>
+      <c r="N6">
+        <v>3.106836</v>
+      </c>
+      <c r="O6">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P6">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q6">
+        <v>2.806344202896</v>
+      </c>
+      <c r="R6">
+        <v>25.257097826064</v>
+      </c>
+      <c r="S6">
+        <v>0.04127235026786032</v>
+      </c>
+      <c r="T6">
+        <v>0.04127235026786032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.062595</v>
+      </c>
+      <c r="H7">
+        <v>0.187785</v>
+      </c>
+      <c r="I7">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="J7">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.612892</v>
+      </c>
+      <c r="N7">
+        <v>10.838676</v>
+      </c>
+      <c r="O7">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P7">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q7">
+        <v>0.22614897474</v>
+      </c>
+      <c r="R7">
+        <v>2.03534077266</v>
+      </c>
+      <c r="S7">
+        <v>0.003325928333578927</v>
+      </c>
+      <c r="T7">
+        <v>0.003325928333578928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.062595</v>
+      </c>
+      <c r="H8">
+        <v>0.187785</v>
+      </c>
+      <c r="I8">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="J8">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N8">
+        <v>23.79245</v>
+      </c>
+      <c r="O8">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P8">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q8">
+        <v>0.49642946925</v>
+      </c>
+      <c r="R8">
+        <v>4.46786522325</v>
+      </c>
+      <c r="S8">
+        <v>0.007300890217611446</v>
+      </c>
+      <c r="T8">
+        <v>0.007300890217611447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.062595</v>
+      </c>
+      <c r="H9">
+        <v>0.187785</v>
+      </c>
+      <c r="I9">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="J9">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N9">
+        <v>13.076582</v>
+      </c>
+      <c r="O9">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P9">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q9">
+        <v>0.2728428834300001</v>
+      </c>
+      <c r="R9">
+        <v>2.455585950870001</v>
+      </c>
+      <c r="S9">
+        <v>0.00401264643210741</v>
+      </c>
+      <c r="T9">
+        <v>0.00401264643210741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.062595</v>
+      </c>
+      <c r="H10">
+        <v>0.187785</v>
+      </c>
+      <c r="I10">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="J10">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N10">
+        <v>15.759034</v>
+      </c>
+      <c r="O10">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P10">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q10">
+        <v>0.32881224441</v>
+      </c>
+      <c r="R10">
+        <v>2.95931019969</v>
+      </c>
+      <c r="S10">
+        <v>0.004835776776649995</v>
+      </c>
+      <c r="T10">
+        <v>0.004835776776649995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.062595</v>
+      </c>
+      <c r="H11">
+        <v>0.187785</v>
+      </c>
+      <c r="I11">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="J11">
+        <v>0.02042859749086759</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.035612</v>
+      </c>
+      <c r="N11">
+        <v>3.106836</v>
+      </c>
+      <c r="O11">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P11">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q11">
+        <v>0.06482413313999999</v>
+      </c>
+      <c r="R11">
+        <v>0.58341719826</v>
+      </c>
+      <c r="S11">
+        <v>0.0009533557309198116</v>
+      </c>
+      <c r="T11">
+        <v>0.0009533557309198117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2916506666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.874952</v>
+      </c>
+      <c r="I12">
+        <v>0.09518354624613032</v>
+      </c>
+      <c r="J12">
+        <v>0.09518354624613029</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.612892</v>
+      </c>
+      <c r="N12">
+        <v>10.838676</v>
+      </c>
+      <c r="O12">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P12">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q12">
+        <v>1.053702360394667</v>
+      </c>
+      <c r="R12">
+        <v>9.483321243551998</v>
+      </c>
+      <c r="S12">
+        <v>0.0154965926315816</v>
+      </c>
+      <c r="T12">
+        <v>0.01549659263158159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2916506666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.874952</v>
+      </c>
+      <c r="I13">
+        <v>0.09518354624613032</v>
+      </c>
+      <c r="J13">
+        <v>0.09518354624613029</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N13">
+        <v>23.79245</v>
+      </c>
+      <c r="O13">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P13">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q13">
+        <v>2.313027968044445</v>
+      </c>
+      <c r="R13">
+        <v>20.8172517124</v>
+      </c>
+      <c r="S13">
+        <v>0.03401724577404783</v>
+      </c>
+      <c r="T13">
+        <v>0.03401724577404782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2916506666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.874952</v>
+      </c>
+      <c r="I14">
+        <v>0.09518354624613032</v>
+      </c>
+      <c r="J14">
+        <v>0.09518354624613029</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N14">
+        <v>13.076582</v>
+      </c>
+      <c r="O14">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P14">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q14">
+        <v>1.271264619340445</v>
+      </c>
+      <c r="R14">
+        <v>11.441381574064</v>
+      </c>
+      <c r="S14">
+        <v>0.01869623783084507</v>
+      </c>
+      <c r="T14">
+        <v>0.01869623783084507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.47546229409258</v>
-      </c>
-      <c r="H6">
-        <v>2.47546229409258</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="N6">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="O6">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="P6">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="Q6">
-        <v>2.41985073686186</v>
-      </c>
-      <c r="R6">
-        <v>2.41985073686186</v>
-      </c>
-      <c r="S6">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="T6">
-        <v>0.04468066844371075</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2916506666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.874952</v>
+      </c>
+      <c r="I15">
+        <v>0.09518354624613032</v>
+      </c>
+      <c r="J15">
+        <v>0.09518354624613029</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N15">
+        <v>15.759034</v>
+      </c>
+      <c r="O15">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P15">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q15">
+        <v>1.532044257374222</v>
+      </c>
+      <c r="R15">
+        <v>13.788398316368</v>
+      </c>
+      <c r="S15">
+        <v>0.02253147249398763</v>
+      </c>
+      <c r="T15">
+        <v>0.02253147249398763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2916506666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.874952</v>
+      </c>
+      <c r="I16">
+        <v>0.09518354624613032</v>
+      </c>
+      <c r="J16">
+        <v>0.09518354624613029</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.035612</v>
+      </c>
+      <c r="N16">
+        <v>3.106836</v>
+      </c>
+      <c r="O16">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P16">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q16">
+        <v>0.302036930208</v>
+      </c>
+      <c r="R16">
+        <v>2.718332371872</v>
+      </c>
+      <c r="S16">
+        <v>0.00444199751566819</v>
+      </c>
+      <c r="T16">
+        <v>0.004441997515668189</v>
       </c>
     </row>
   </sheetData>
